--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints9.000000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints9.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>4.544345716381911e-06</v>
+        <v>4.462616864747666e-06</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>4.536731253440154e-06</v>
+        <v>4.579704596999285e-06</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>4.575347497698642e-06</v>
+        <v>4.714087531859245e-06</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>4.656799576060038e-06</v>
+        <v>4.864881286381852e-06</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>4.777692615427124e-06</v>
+        <v>5.031201477621931e-06</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>4.934631742702663e-06</v>
+        <v>5.212163722634139e-06</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>5.124222084789689e-06</v>
+        <v>5.406883638473402e-06</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>5.343068768590466e-06</v>
+        <v>5.614476842193867e-06</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>5.587776921007982e-06</v>
+        <v>5.834058950850436e-06</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>5.854951668945366e-06</v>
+        <v>6.064745581498081e-06</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>6.141198139304679e-06</v>
+        <v>6.305652351190857e-06</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>6.443121458989018e-06</v>
+        <v>6.555894876983714e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>6.757326754901567e-06</v>
+        <v>6.814588775931657e-06</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>7.080419153944262e-06</v>
+        <v>7.080849665088667e-06</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>7.409003783020268e-06</v>
+        <v>7.353793161509733e-06</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>7.739685769032355e-06</v>
+        <v>7.632534882249521e-06</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>8.069070238883711e-06</v>
+        <v>7.916190444363061e-06</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>8.393762319476237e-06</v>
+        <v>8.203875464904266e-06</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>8.710458462586288e-06</v>
+        <v>8.494703620195576e-06</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>9.017691639387418e-06</v>
+        <v>8.78774955893291e-06</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>9.315695668518283e-06</v>
+        <v>9.082051785330422e-06</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>9.60476850899607e-06</v>
+        <v>9.37664744056491e-06</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>9.885208119837552e-06</v>
+        <v>9.670573665812775e-06</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.015731246005986e-05</v>
+        <v>9.962867602250806e-06</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.042137948867905e-05</v>
+        <v>1.025256639105464e-05</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.067770716471228e-05</v>
+        <v>1.053870717340107e-05</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.092659344717662e-05</v>
+        <v>1.082032709046687e-05</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.116833629508821e-05</v>
+        <v>1.109646328342771e-05</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.140323366746415e-05</v>
+        <v>1.136615289346035e-05</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.163158352332122e-05</v>
+        <v>1.162843306174122e-05</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.185368382167649e-05</v>
+        <v>1.188234092944704e-05</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.206983252154614e-05</v>
+        <v>1.212691363775356e-05</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.228032758194724e-05</v>
+        <v>1.236118832783751e-05</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.248546696189685e-05</v>
+        <v>1.258420214087559e-05</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.268540637852281e-05</v>
+        <v>1.279504521596103e-05</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.28793495610577e-05</v>
+        <v>1.299316239343997e-05</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.306610952243651e-05</v>
+        <v>1.317814409067737e-05</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.324449808432611e-05</v>
+        <v>1.334958116889188e-05</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.341332706839414e-05</v>
+        <v>1.350706448930287e-05</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.357140829630799e-05</v>
+        <v>1.365018491312947e-05</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.371755358973523e-05</v>
+        <v>1.377853330159098e-05</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.385057477034286e-05</v>
+        <v>1.389170051590617e-05</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.396928365979845e-05</v>
+        <v>1.398927741729437e-05</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.407249207976953e-05</v>
+        <v>1.407085486697479e-05</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.415901185192319e-05</v>
+        <v>1.413602372616635e-05</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.422765479792698e-05</v>
+        <v>1.41843748560883e-05</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.427723273944829e-05</v>
+        <v>1.421549911795977e-05</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.430655749815451e-05</v>
+        <v>1.422898737299988e-05</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.431444089571295e-05</v>
+        <v>1.422443048242774e-05</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.429986860732132e-05</v>
+        <v>1.420154472906962e-05</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.426406136605791e-05</v>
+        <v>1.416165881369334e-05</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.420979046579455e-05</v>
+        <v>1.410722004435862e-05</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.413985839079439e-05</v>
+        <v>1.404069823053191e-05</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.405706762532054e-05</v>
+        <v>1.396456318167964e-05</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.396422065363642e-05</v>
+        <v>1.388128470726851e-05</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.386411996000513e-05</v>
+        <v>1.379333261676495e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.375956802868987e-05</v>
+        <v>1.370317671963546e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.365336734395372e-05</v>
+        <v>1.361328682534643e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.354832039006015e-05</v>
+        <v>1.352613274336464e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.344722965127224e-05</v>
+        <v>1.344418428315645e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.335289761185307e-05</v>
+        <v>1.336991125418831e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.326804610835348e-05</v>
+        <v>1.330570477233567e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.319341356633982e-05</v>
+        <v>1.325202060120912e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.312768086254781e-05</v>
+        <v>1.320730681069322e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.306943339217124e-05</v>
+        <v>1.316991830268072e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.30172565504041e-05</v>
+        <v>1.313820997906448e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>1.296973573244018e-05</v>
+        <v>1.311053674173723e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>1.292545633347325e-05</v>
+        <v>1.308525349259171e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.288300374869729e-05</v>
+        <v>1.306071513352077e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.284096337330609e-05</v>
+        <v>1.303527656641715e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.279792060249345e-05</v>
+        <v>1.300729269317358e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>1.275246083145331e-05</v>
+        <v>1.297511841568292e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.270316945537949e-05</v>
+        <v>1.29371086358379e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>1.264863186946583e-05</v>
+        <v>1.289161825553131e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.258743346890609e-05</v>
+        <v>1.283700217665584e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.251815964889429e-05</v>
+        <v>1.277161530110441e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.24393958046242e-05</v>
+        <v>1.269381253076973e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.234972733128956e-05</v>
+        <v>1.260194876754446e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.224773962408443e-05</v>
+        <v>1.249437891332161e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.213201807820257e-05</v>
+        <v>1.236945786999383e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.200114808883782e-05</v>
+        <v>1.222554053945391e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.185371505118383e-05</v>
+        <v>1.206098182359441e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.168830436043484e-05</v>
+        <v>1.187413662430851e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.150350141178451e-05</v>
+        <v>1.16633598434888e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.129789160042642e-05</v>
+        <v>1.142700638302774e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.107006032155495e-05</v>
+        <v>1.116343114481871e-05</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>1.08185929703637e-05</v>
+        <v>1.087098903075419e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.054329230927542e-05</v>
+        <v>1.054972452718457e-05</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.025028914934654e-05</v>
+        <v>1.020846482165709e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>9.947764016265946e-06</v>
+        <v>9.85888190146634e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>9.643898487328948e-06</v>
+        <v>9.51264921343214e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>9.346874139830863e-06</v>
+        <v>9.181440204374328e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>9.064872551068172e-06</v>
+        <v>8.876928321114042e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>8.806075298336173e-06</v>
+        <v>8.610787010471089e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>8.578663958930284e-06</v>
+        <v>8.39468971926548e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>8.390820110146807e-06</v>
+        <v>8.240309894318056e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>8.250725329281113e-06</v>
+        <v>8.15932098244875e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>8.166561193628893e-06</v>
+        <v>8.163396430477817e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>8.146509280485862e-06</v>
+        <v>8.264209685225716e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>8.198751167147776e-06</v>
+        <v>8.473434193512451e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>5.369606672855336e-06</v>
+        <v>5.402153804778806e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>6.971133477392526e-06</v>
+        <v>7.034696014593576e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>6.678701839882843e-06</v>
+        <v>6.842246092470231e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>9.228872994010127e-06</v>
+        <v>9.297452696630795e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.165299701039942e-05</v>
+        <v>1.159994446931132e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.193714324128074e-05</v>
+        <v>1.189033107387466e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.97136427766463e-05</v>
+        <v>1.978789603464018e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>5.239525200545074e-05</v>
+        <v>5.258037391306333e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>0.000106100555091079</v>
+        <v>0.0001063853810448723</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0001326594071490783</v>
+        <v>0.0001331561406078743</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>0.000140917788904375</v>
+        <v>0.0001412185016355097</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>0.000142138852973023</v>
+        <v>0.0001418921271445952</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0001379793948149302</v>
+        <v>0.0001376190626091183</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0001315931925585626</v>
+        <v>0.0001315493828979655</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0001267734546636299</v>
+        <v>0.0001269986861710765</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>0.000123939008752683</v>
+        <v>0.0001240204176124949</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>0.000123038435643056</v>
+        <v>0.0001226734010501565</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0001258595031077232</v>
+        <v>0.0001259723319401695</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0001236135928630494</v>
+        <v>0.0001239262886336931</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0001210090559169366</v>
+        <v>0.0001208452043316175</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0001229720428322034</v>
+        <v>0.0001226664986677214</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0001228726050550441</v>
+        <v>0.0001226329004273746</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0001212891875358984</v>
+        <v>0.000121175964905444</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>0.000119715880504582</v>
+        <v>0.0001196932462647185</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0001179510035126871</v>
+        <v>0.0001179792928050042</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0001156091687865211</v>
+        <v>0.0001156549949587518</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>0.000112311980641604</v>
+        <v>0.0001123485495822584</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0001077523853921256</v>
+        <v>0.0001077627027637425</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0001016650374213817</v>
+        <v>0.0001016437836781702</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>9.379676172926167e-05</v>
+        <v>9.375035028602584e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>8.434707838712352e-05</v>
+        <v>8.42950001007724e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>7.410354744741291e-05</v>
+        <v>7.40801170660194e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>6.389302595564727e-05</v>
+        <v>6.394749882853371e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>5.444272926787158e-05</v>
+        <v>5.462929016379595e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>4.582274757305824e-05</v>
+        <v>4.613448811919749e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>3.783819422225185e-05</v>
+        <v>3.818071881435428e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>3.046884762150575e-05</v>
+        <v>3.071263243052568e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>2.40565066164587e-05</v>
+        <v>2.41451115918776e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>1.897175985805402e-05</v>
+        <v>1.893264188700621e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>1.526983037878362e-05</v>
+        <v>1.516374107076849e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>1.271671248399153e-05</v>
+        <v>1.259128976912737e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>1.106769594688178e-05</v>
+        <v>1.095574647256458e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>1.007807054066041e-05</v>
+        <v>9.99756967156378e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>9.503126038531105e-06</v>
+        <v>9.457217856606334e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>9.107640463034352e-06</v>
+        <v>9.085332551285436e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>8.786738239264858e-06</v>
+        <v>8.772446389357441e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>8.530252405849049e-06</v>
+        <v>8.510735723387511e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>8.33014798611826e-06</v>
+        <v>8.294665006735162e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>8.178390003403923e-06</v>
+        <v>8.118698692759989e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>8.066943481037661e-06</v>
+        <v>7.977301234821823e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>7.987773442350896e-06</v>
+        <v>7.864937086280242e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>7.932844910675113e-06</v>
+        <v>7.776070700494917e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>7.894122909341788e-06</v>
+        <v>7.705166530825483e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>7.86462916705598e-06</v>
+        <v>7.647384699716539e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>7.842620331437616e-06</v>
+        <v>7.601331674584517e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>7.827971168549069e-06</v>
+        <v>7.56667919137222e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>7.820556918166956e-06</v>
+        <v>7.543099297886473e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>7.820252820067884e-06</v>
+        <v>7.530264041934059e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>7.826934114028462e-06</v>
+        <v>7.527845471321776e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>7.840476039825305e-06</v>
+        <v>7.535515633856427e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>7.860753837235011e-06</v>
+        <v>7.552946577344806e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>7.887642746034194e-06</v>
+        <v>7.579810349593707e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>7.921018005999479e-06</v>
+        <v>7.615778998409951e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>7.960754856907445e-06</v>
+        <v>7.660524571600302e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>8.006728538534719e-06</v>
+        <v>7.713719116971575e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>8.058814290657906e-06</v>
+        <v>7.775034682330564e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>8.116887353053642e-06</v>
+        <v>7.844143315484104e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>8.180822965498487e-06</v>
+        <v>7.920717064238925e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>8.250496367769079e-06</v>
+        <v>8.004427976401863e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>8.325782799642055e-06</v>
+        <v>8.094948099779752e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>8.406557500893961e-06</v>
+        <v>8.19194948217931e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>8.492695711301436e-06</v>
+        <v>8.295104171407377e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>8.584072670641092e-06</v>
+        <v>8.40408421527075e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>8.680563618689582e-06</v>
+        <v>8.518561661576274e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>8.782043795223427e-06</v>
+        <v>8.638208558130653e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>8.888388440019286e-06</v>
+        <v>8.762696952740734e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>8.99947279285381e-06</v>
+        <v>8.891698893213373e-06</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>9.115172093503512e-06</v>
+        <v>9.024886427355248e-06</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>9.235361581745052e-06</v>
+        <v>9.161931602973217e-06</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>9.359916497355035e-06</v>
+        <v>9.302506467874079e-06</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>9.488712080110134e-06</v>
+        <v>9.446283069864699e-06</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>9.62162356978684e-06</v>
+        <v>9.59293345675174e-06</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>9.758526206161822e-06</v>
+        <v>9.742129676342073e-06</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>9.899295229011686e-06</v>
+        <v>9.893543776442489e-06</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>1.004380587811311e-05</v>
+        <v>1.004684780485986e-05</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>1.019193339324257e-05</v>
+        <v>1.020171380940084e-05</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>1.034355301417674e-05</v>
+        <v>1.035781383787231e-05</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>1.049854005381915e-05</v>
+        <v>1.051482003613604e-05</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>1.065703110997114e-05</v>
+        <v>1.067275490390834e-05</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>1.082001092038495e-05</v>
+        <v>1.08327782018163e-05</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>1.098863601286027e-05</v>
+        <v>1.099628004174639e-05</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>1.116406291519656e-05</v>
+        <v>1.116465053558484e-05</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>1.13474481551935e-05</v>
+        <v>1.133927979521814e-05</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>1.153994826065069e-05</v>
+        <v>1.152155793253266e-05</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>1.174271975936784e-05</v>
+        <v>1.17128750594149e-05</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>1.195691917914436e-05</v>
+        <v>1.191462128775108e-05</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>1.218370304777996e-05</v>
+        <v>1.212818672942767e-05</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>1.242422789307425e-05</v>
+        <v>1.235496149633107e-05</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>1.267965024282694e-05</v>
+        <v>1.259633570034778e-05</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>1.295112662483742e-05</v>
+        <v>1.285369945336398e-05</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>1.323981356690539e-05</v>
+        <v>1.312844286726618e-05</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>1.354686759683063e-05</v>
+        <v>1.342195605394089e-05</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>1.387344524241244e-05</v>
+        <v>1.373562912527425e-05</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>1.422070303145058e-05</v>
+        <v>1.40708521931528e-05</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>1.458979749174466e-05</v>
+        <v>1.44290153694629e-05</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>1.498188515109445e-05</v>
+        <v>1.481150876609114e-05</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>1.539812253729921e-05</v>
+        <v>1.521972249492357e-05</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>1.583966617815873e-05</v>
+        <v>1.565504666784676e-05</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>1.630767260147283e-05</v>
+        <v>1.611887139674729e-05</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>1.680329833504069e-05</v>
+        <v>1.661258679351117e-05</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>1.732769990666212e-05</v>
+        <v>1.713758297002497e-05</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>1.788203384413673e-05</v>
+        <v>1.76952500381751e-05</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.84674566752644e-05</v>
+        <v>1.828697810984822e-05</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.908512492784421e-05</v>
+        <v>1.89141572969302e-05</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.973718388584834e-05</v>
+        <v>1.957908327265524e-05</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>2.043106162795304e-05</v>
+        <v>2.028889000591125e-05</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>2.117594332348558e-05</v>
+        <v>2.105232071306507e-05</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>2.198101532507316e-05</v>
+        <v>2.187811969421969e-05</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>2.285546398534268e-05</v>
+        <v>2.277503124947778e-05</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>2.380847565692147e-05</v>
+        <v>2.375179967894247e-05</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>2.484923669243561e-05</v>
+        <v>2.481716928271556e-05</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>2.598693344451238e-05</v>
+        <v>2.597988436090015e-05</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>2.723075226577927e-05</v>
+        <v>2.72486892135995e-05</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>2.858987950886207e-05</v>
+        <v>2.863232814091514e-05</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>3.007350152638821e-05</v>
+        <v>3.01395454429503e-05</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>3.16908046709846e-05</v>
+        <v>3.177908541980764e-05</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>3.345097529527895e-05</v>
+        <v>3.355969237159069e-05</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>3.536319975189658e-05</v>
+        <v>3.549011059840049e-05</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>3.743666439346516e-05</v>
+        <v>3.757908440034052e-05</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>3.968055557261264e-05</v>
+        <v>3.983535807751449e-05</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>4.21040596419639e-05</v>
+        <v>4.226767593002302e-05</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>4.472281548351965e-05</v>
+        <v>4.489130274781531e-05</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>4.762100461086053e-05</v>
+        <v>4.779076786926417e-05</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>5.092414027544675e-05</v>
+        <v>5.109236769207184e-05</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>5.475830568628286e-05</v>
+        <v>5.492297457449279e-05</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>5.924958405237772e-05</v>
+        <v>5.940946087478576e-05</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>6.452405858273881e-05</v>
+        <v>6.46786989512081e-05</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>7.070781248637664e-05</v>
+        <v>7.085756116202023e-05</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>7.792692897229312e-05</v>
+        <v>7.807291986547395e-05</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>8.630749124949834e-05</v>
+        <v>8.64516474198292e-05</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>9.597558252700442e-05</v>
+        <v>9.612061618334807e-05</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>0.0001070572860138102</v>
+        <v>0.0001072066985142792</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>0.0001196786849189272</v>
+        <v>0.0001198367667708841</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>0.0001339658624513697</v>
+        <v>0.0001341376933114268</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>0.0001500146390334758</v>
+        <v>0.0001502059811767564</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>0.0001675501268377039</v>
+        <v>0.0001677661201946119</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>0.0001860489782018515</v>
+        <v>0.0001862932657324097</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>0.000204983266188624</v>
+        <v>0.0002052579777625584</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0002238250638607007</v>
+        <v>0.0002241308162574411</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>0.0002420464442807869</v>
+        <v>0.0002423823411894665</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0002591194805115795</v>
+        <v>0.0002594831125310348</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>0.0002745162456157814</v>
+        <v>0.0002749036902545525</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>0.0002877088126560755</v>
+        <v>0.0002881146343324061</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>0.0002981692546951659</v>
+        <v>0.0002985865047370028</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>0.0003053696447957519</v>
+        <v>0.0003057898614407453</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>0.0003087820560205232</v>
+        <v>0.0003091952644160273</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0003078785614321809</v>
+        <v>0.0003082732736352529</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>0.000302180241791451</v>
+        <v>0.0003025436562169252</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>0.0002919053888080109</v>
+        <v>0.0002922262276884506</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>0.000277791129517478</v>
+        <v>0.0002780617504225967</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>0.0002605869441265222</v>
+        <v>0.0002608033902372481</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>0.0002410423128418082</v>
+        <v>0.0002412043129502837</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>0.0002199067158700278</v>
+        <v>0.0002200176843796101</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>0.0001979296334178463</v>
+        <v>0.0001979966703431071</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>0.0001758605456919377</v>
+        <v>0.0001758944366586632</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>0.0001544489328989662</v>
+        <v>0.0001544641491441572</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>0.0001344442752456253</v>
+        <v>0.0001344589736174971</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>0.000116596052938579</v>
+        <v>0.0001166320758965614</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>0.000101653746184495</v>
+        <v>0.0001017366217992325</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>9.0366835190061e-05</v>
+        <v>9.052577714341247e-05</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>8.348480016194328e-05</v>
+        <v>8.375270774698224e-05</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>8.152426695592205e-05</v>
+        <v>8.193385561341979e-05</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>8.174345496058091e-05</v>
+        <v>8.227310962080976e-05</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>7.900293927890757e-05</v>
+        <v>7.953687144243565e-05</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>6.811633816049177e-05</v>
+        <v>6.844387397190964e-05</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>4.854026009427335e-05</v>
+        <v>4.846969512968694e-05</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>3.191796073506885e-05</v>
+        <v>3.157495054612603e-05</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>2.500401157042499e-05</v>
+        <v>2.468069246520004e-05</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>2.33050313080613e-05</v>
+        <v>2.313364994005017e-05</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>2.195055429228275e-05</v>
+        <v>2.189684747065653e-05</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>1.985305533034835e-05</v>
+        <v>1.985083832553666e-05</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>1.727318690805362e-05</v>
+        <v>1.727231850727685e-05</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>1.447325479891274e-05</v>
+        <v>1.443969612634979e-05</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>1.171213378700117e-05</v>
+        <v>1.162775711994947e-05</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>9.181043886764856e-06</v>
+        <v>9.039862752273715e-06</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>7.009270125416623e-06</v>
+        <v>6.813988118379764e-06</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>5.323813296020988e-06</v>
+        <v>5.085696795585845e-06</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>4.251674191644659e-06</v>
+        <v>3.990552361212437e-06</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>3.9198536053519e-06</v>
+        <v>3.664118392577521e-06</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>4.455352330207854e-06</v>
+        <v>4.241958466999967e-06</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>5.985171159278596e-06</v>
+        <v>5.85963616179964e-06</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>8.636310885627937e-06</v>
+        <v>8.652715054294006e-06</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>1.274520778193009e-05</v>
+        <v>1.295632015801418e-05</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>2.108016863258488e-05</v>
+        <v>2.142279405109842e-05</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>3.655740712983931e-05</v>
+        <v>3.682794118180107e-05</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>5.507486145531506e-05</v>
+        <v>5.517348176986664e-05</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>7.046069458783006e-05</v>
+        <v>7.046447751556979e-05</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>8.067447637792863e-05</v>
+        <v>8.073094995623512e-05</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>8.893983401356471e-05</v>
+        <v>8.913134029301642e-05</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>9.882196625571567e-05</v>
+        <v>9.915686010919251e-05</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>0.0001138857472547908</v>
+        <v>0.0001142984011354456</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>0.0001359822339607646</v>
+        <v>0.00013635815813471</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>0.0001612481491304488</v>
+        <v>0.0001615077493870614</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>0.0001846306883787747</v>
+        <v>0.0001847467014949814</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>0.000201077047320679</v>
+        <v>0.0002010745410609571</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>0.0002060887362676433</v>
+        <v>0.0002060417448958902</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>0.000202621727035869</v>
+        <v>0.0002026080054516255</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>0.0001989691803416373</v>
+        <v>0.0001990378092891597</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>0.000203540242906262</v>
+        <v>0.000203710924981755</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>0.0002225421628167546</v>
+        <v>0.0002228126808176133</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>0.000252728716210571</v>
+        <v>0.0002531069542712575</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>0.0002883171744548681</v>
+        <v>0.0002888297097859391</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>0.0003235247778990783</v>
+        <v>0.0003242168808922492</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>0.0003525687814652206</v>
+        <v>0.0003535044155730617</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>0.0003712495023555101</v>
+        <v>0.0003724982550671926</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>0.0003813058445535129</v>
+        <v>0.0003828939011905664</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>0.0003858689898930989</v>
+        <v>0.0003877676396124788</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>0.0003880701202081271</v>
+        <v>0.0003901957560022149</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>0.0003909397895398474</v>
+        <v>0.0003931569030104711</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>0.0003959287447425276</v>
+        <v>0.0003980969425901252</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>0.0004032325359489937</v>
+        <v>0.0004052438957610548</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>0.0004130120861906308</v>
+        <v>0.0004147921869755186</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>0.0004254283184988104</v>
+        <v>0.0004269362406857622</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>0.0004406421559049164</v>
+        <v>0.0004418704813440432</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>0.0004588145214403292</v>
+        <v>0.000459789333402616</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>0.0004801063381364389</v>
+        <v>0.0004808872213137445</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>0.000504675814269864</v>
+        <v>0.0005053557232696716</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>0.0005323275478676754</v>
+        <v>0.0005330156780030761</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>0.0005621654270259099</v>
+        <v>0.0005629532712735574</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>0.0005932108516060967</v>
+        <v>0.0005941682047992589</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>0.0006244852214698049</v>
+        <v>0.0006256601802983643</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>0.0006550099364785911</v>
+        <v>0.0006564288994890448</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>0.0006838063964940239</v>
+        <v>0.0006854740640894838</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>0.0007098960013776337</v>
+        <v>0.0007117953758178256</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>0.0007323001509909897</v>
+        <v>0.0007343925363922543</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>0.0007500415764780536</v>
+        <v>0.0007522666212389698</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>0.0007624182975104188</v>
+        <v>0.0007647027672720197</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>0.0007693391635324211</v>
+        <v>0.0007716164072465423</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>0.0007707951526695464</v>
+        <v>0.0007730077198951526</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>0.0007667772430472774</v>
+        <v>0.0007688768839504627</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>0.0007572764127911035</v>
+        <v>0.0007592240781450914</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>0.0007422836400265093</v>
+        <v>0.0007440494812116532</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>0.0007217899028789705</v>
+        <v>0.0007233532718827527</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>0.0006957861794739913</v>
+        <v>0.0006971356288910242</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>0.0006643076323219555</v>
+        <v>0.0006654407059793734</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>0.0006280614281175911</v>
+        <v>0.0006289814766782954</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>0.0005882776626695581</v>
+        <v>0.0005889913656509589</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>0.0005462002119443998</v>
+        <v>0.0005467175124189865</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>0.0005030729519086059</v>
+        <v>0.0005034070565039474</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>0.000460139758528664</v>
+        <v>0.0004603071374274087</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>0.0004186445077711206</v>
+        <v>0.0004186648947109962</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>0.0003798310756024631</v>
+        <v>0.0003797274678762765</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>0.0003449433379891985</v>
+        <v>0.0003447419964448361</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>0.0003149159890591395</v>
+        <v>0.0003146455970706894</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>0.0002894086371152399</v>
+        <v>0.0002890968321257093</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>0.0002677522338174903</v>
+        <v>0.0002674247133350416</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>0.0002492777304894487</v>
+        <v>0.0002489582520864839</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>0.0002333160784546656</v>
+        <v>0.0002330264597678272</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>0.000219198229036713</v>
+        <v>0.000218958347766883</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>0.0002062551335591408</v>
+        <v>0.0002060829274714414</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>0.000193817743345501</v>
+        <v>0.0001937292102692943</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>0.0001812193856630856</v>
+        <v>0.0001812285748894604</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>0.0001682390014848631</v>
+        <v>0.000168356400345531</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>0.0001556226388705958</v>
+        <v>0.0001558516711602602</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>0.0001442430999126174</v>
+        <v>0.0001445796669541859</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>0.0001349731867032438</v>
+        <v>0.000135405667347829</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>0.0001286857013347968</v>
+        <v>0.0001291949519617159</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>0.0001262534458995982</v>
+        <v>0.0001268128004163727</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>0.0001285492224899725</v>
+        <v>0.0001291244923323287</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>0.0001364458331982394</v>
+        <v>0.0001369953073301081</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>0.0001507989017037995</v>
+        <v>0.0001512734789223484</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>0.0001715017415968985</v>
+        <v>0.0001718523420709522</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>0.0001969941374783591</v>
+        <v>0.0001971828975660273</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>0.0002255951831860492</v>
+        <v>0.0002255963849731744</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>0.0002556239725578424</v>
+        <v>0.0002554240438579998</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>0.0002853995994315709</v>
+        <v>0.000284997113786069</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>0.000313241157645108</v>
+        <v>0.0003126468343229881</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>0.0003374677410363233</v>
+        <v>0.0003367044450343595</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>0.0003563984434430545</v>
+        <v>0.0003555011854857539</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>0.0003686696110340366</v>
+        <v>0.0003676833112725078</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>0.0003745779614170696</v>
+        <v>0.0003735457455259562</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>0.0003749615694153217</v>
+        <v>0.000373920952583792</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>0.0003706588077788806</v>
+        <v>0.0003696416926105501</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>0.000362508049257836</v>
+        <v>0.0003615407257707676</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>0.0003513476666022758</v>
+        <v>0.00035045081222898</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>0.0003380160325622815</v>
+        <v>0.000337204712149716</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>0.0003233515198879534</v>
+        <v>0.0003226351856975237</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>0.0003081924896746022</v>
+        <v>0.000307574981456306</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>0.0002932210897090271</v>
+        <v>0.0002927016284946428</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>0.0002785716395349569</v>
+        <v>0.0002781483127954969</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>0.0002642584349947196</v>
+        <v>0.0002639289602036503</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>0.0002502957719306499</v>
+        <v>0.0002500574965638915</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>0.0002366979461850763</v>
+        <v>0.0002365478477210036</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>0.0002234792536003459</v>
+        <v>0.0002234139395197872</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>0.0002106539900187872</v>
+        <v>0.0002106696978050248</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>0.0001982364512827349</v>
+        <v>0.0001983290484215054</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>0.0001862409332345184</v>
+        <v>0.0001864059172140122</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>0.0001746817317164831</v>
+        <v>0.0001749142300273448</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>0.0001635731425709582</v>
+        <v>0.0001638679127062862</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>0.0001529294616402739</v>
+        <v>0.0001532808910956208</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>0.0001427649847667744</v>
+        <v>0.0001431670910401466</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>0.0001330940077927894</v>
+        <v>0.0001335404383846476</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>0.0001239308265606497</v>
+        <v>0.0001244148589739084</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>0.0001152897369126983</v>
+        <v>0.0001158042786527261</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>0.0001071850346912655</v>
+        <v>0.000107722623265885</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>9.962754742856693e-05</v>
+        <v>0.0001001804324462608</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>9.260493353014575e-05</v>
+        <v>9.316562513536676e-05</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>8.609535833253496e-05</v>
+        <v>8.665685191569743e-05</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>8.00769584924592e-05</v>
+        <v>8.063273536881689e-05</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>7.452787066664636e-05</v>
+        <v>7.507189807629268e-05</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>6.94262315118222e-05</v>
+        <v>6.995296261969009e-05</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>6.475017768471919e-05</v>
+        <v>6.525455158058117e-05</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>6.047784584206281e-05</v>
+        <v>6.095528754053103e-05</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>5.658737264057934e-05</v>
+        <v>5.703379308110545e-05</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>5.305689473700015e-05</v>
+        <v>5.346869078387542e-05</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>4.986454878805131e-05</v>
+        <v>5.023860323040661e-05</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>4.698847145045953e-05</v>
+        <v>4.732215300226523e-05</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>4.440679938095527e-05</v>
+        <v>4.469796268102141e-05</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>4.209766923626508e-05</v>
+        <v>4.234465484824122e-05</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>4.0039217673116e-05</v>
+        <v>4.024085208549126e-05</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>3.820958134823855e-05</v>
+        <v>3.83651769743417e-05</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>3.658689691835733e-05</v>
+        <v>3.669625209635662e-05</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>3.514930104020197e-05</v>
+        <v>3.521270003310529e-05</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>3.387493037050143e-05</v>
+        <v>3.389314336615626e-05</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>3.274192156598128e-05</v>
+        <v>3.271620467707461e-05</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>3.172841128337151e-05</v>
+        <v>3.166050654742999e-05</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>3.08125361793982e-05</v>
+        <v>3.070467155878795e-05</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>2.997243291079015e-05</v>
+        <v>2.982732229271694e-05</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>2.918623813427595e-05</v>
+        <v>2.900708133078515e-05</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>2.843208850658208e-05</v>
+        <v>2.822257125455856e-05</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>2.768812068443714e-05</v>
+        <v>2.74524146456054e-05</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>2.693371334739324e-05</v>
+        <v>2.667643577610229e-05</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>2.616272632880404e-05</v>
+        <v>2.588846982542786e-05</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>2.537838242823376e-05</v>
+        <v>2.509141089551005e-05</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>2.458406140863513e-05</v>
+        <v>2.42883049545922e-05</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>2.37831430329587e-05</v>
+        <v>2.348219797091548e-05</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>2.29790070641572e-05</v>
+        <v>2.267613591272323e-05</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>2.217503326518337e-05</v>
+        <v>2.187316474825878e-05</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>2.137460139898774e-05</v>
+        <v>2.107633044576331e-05</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>2.058109122852307e-05</v>
+        <v>2.028867897348017e-05</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.979788251674205e-05</v>
+        <v>1.951325629965267e-05</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>1.902835502659527e-05</v>
+        <v>1.875310839252201e-05</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>1.827588852103614e-05</v>
+        <v>1.801128122033219e-05</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>1.754386276301527e-05</v>
+        <v>1.729082075132448e-05</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>1.683565751548538e-05</v>
+        <v>1.659477295374218e-05</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>1.615465254139908e-05</v>
+        <v>1.592618379582851e-05</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.550422760370713e-05</v>
+        <v>1.528809924582486e-05</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.488776246536218e-05</v>
+        <v>1.468356527197448e-05</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.430856700154252e-05</v>
+        <v>1.411556372359187e-05</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.376793181538245e-05</v>
+        <v>1.358522385758193e-05</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.326486887555603e-05</v>
+        <v>1.309158438494342e-05</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>1.279826815291924e-05</v>
+        <v>1.263357208909588e-05</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>1.236701961832683e-05</v>
+        <v>1.221011375345759e-05</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>1.197001324263517e-05</v>
+        <v>1.182013616144845e-05</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>1.160613899669912e-05</v>
+        <v>1.146256609648687e-05</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>1.127428685137466e-05</v>
+        <v>1.113633034199236e-05</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>1.097334677751762e-05</v>
+        <v>1.084035568138428e-05</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>1.070220874598305e-05</v>
+        <v>1.057356889808124e-05</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>1.045976272762681e-05</v>
+        <v>1.033489677550262e-05</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>1.024489869330469e-05</v>
+        <v>1.012326609706775e-05</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>1.005650661387188e-05</v>
+        <v>9.937603646195353e-06</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>9.893476460184168e-06</v>
+        <v>9.776836206304769e-06</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>9.754698203097262e-06</v>
+        <v>9.639890560815231e-06</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>9.639061813466498e-06</v>
+        <v>9.525693493145616e-06</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>9.545457262147596e-06</v>
+        <v>9.433171786715184e-06</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>9.472774519996204e-06</v>
+        <v>9.361252224943119e-06</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>9.419903557867775e-06</v>
+        <v>9.308861591248413e-06</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>9.385734346617998e-06</v>
+        <v>9.274926669050286e-06</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>9.369156857102395e-06</v>
+        <v>9.258374241767803e-06</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>9.369061060176592e-06</v>
+        <v>9.258131092820129e-06</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>9.384336926696158e-06</v>
+        <v>9.273124005626367e-06</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>9.413874427516709e-06</v>
+        <v>9.302279763605672e-06</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>9.456563533493824e-06</v>
+        <v>9.344525150177156e-06</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>9.51129421548303e-06</v>
+        <v>9.398786948759894e-06</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>9.576956444340021e-06</v>
+        <v>9.46399194277311e-06</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>9.652440190920339e-06</v>
+        <v>9.539066915635881e-06</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>9.736635426079489e-06</v>
+        <v>9.622938650767254e-06</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>9.828432120673211e-06</v>
+        <v>9.714533931586507e-06</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>9.926720245557017e-06</v>
+        <v>9.812779541512688e-06</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.00303897715864e-05</v>
+        <v>9.916602263964829e-06</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.013833066961714e-05</v>
+        <v>1.002492888236225e-05</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.024943291050463e-05</v>
+        <v>1.013668618012387e-05</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.036258646510465e-05</v>
+        <v>1.025080094066902e-05</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.047681929524746e-05</v>
+        <v>1.036633674586538e-05</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>1.059326756809199e-05</v>
+        <v>1.048444716367509e-05</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>1.071471286571013e-05</v>
+        <v>1.060791695720098e-05</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.084398041711728e-05</v>
+        <v>1.073957415928991e-05</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.09838954513288e-05</v>
+        <v>1.088224680278872e-05</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.113728319736043e-05</v>
+        <v>1.103876292054464e-05</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.130696888422756e-05</v>
+        <v>1.121195054540451e-05</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.14957777409455e-05</v>
+        <v>1.140463771021513e-05</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.170653499653009e-05</v>
+        <v>1.161965244782382e-05</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.194206587999644e-05</v>
+        <v>1.185982279107715e-05</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.220519562036047e-05</v>
+        <v>1.212797677282253e-05</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.249874944663747e-05</v>
+        <v>1.242694242590673e-05</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.282555258784264e-05</v>
+        <v>1.275954778317641e-05</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.318843027299205e-05</v>
+        <v>1.312862087747913e-05</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.359020773110093e-05</v>
+        <v>1.353698974166159e-05</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.403371019118435e-05</v>
+        <v>1.398748240857033e-05</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>1.45217628822586e-05</v>
+        <v>1.448292691105313e-05</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>1.505719103333881e-05</v>
+        <v>1.502615128195659e-05</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>1.564281987343992e-05</v>
+        <v>1.561998355412711e-05</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.628147463157848e-05</v>
+        <v>1.626725176041274e-05</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>1.697598053676948e-05</v>
+        <v>1.697078393365995e-05</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>1.772916281802773e-05</v>
+        <v>1.773340810671497e-05</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>1.854438053171658e-05</v>
+        <v>1.855847994320458e-05</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>1.943073356278096e-05</v>
+        <v>1.945502929687116e-05</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>2.040081611864794e-05</v>
+        <v>2.043553978249659e-05</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>2.14672719197913e-05</v>
+        <v>2.151254395317133e-05</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>2.264274468668112e-05</v>
+        <v>2.269857436198212e-05</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>2.393987813979154e-05</v>
+        <v>2.400616356201975e-05</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>2.537131599959359e-05</v>
+        <v>2.544784410637191e-05</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>2.69497019865578e-05</v>
+        <v>2.703614854812577e-05</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>2.868767982115905e-05</v>
+        <v>2.878360944037289e-05</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>3.0597893223868e-05</v>
+        <v>3.070275933620059e-05</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>3.269298591515472e-05</v>
+        <v>3.280613078869557e-05</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>3.498560161549502e-05</v>
+        <v>3.510625635095031e-05</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>3.748838404535911e-05</v>
+        <v>3.761566857605168e-05</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>4.021438591763249e-05</v>
+        <v>4.034728581134093e-05</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>4.317947127274866e-05</v>
+        <v>4.33166782724457e-05</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>4.640068598753766e-05</v>
+        <v>4.654053097730817e-05</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>4.989508002865641e-05</v>
+        <v>5.003553280172201e-05</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>5.367970336275325e-05</v>
+        <v>5.381837262147226e-05</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>5.777160595647551e-05</v>
+        <v>5.790573931234297e-05</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>6.218783777648166e-05</v>
+        <v>6.231432175012933e-05</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>6.694544878941933e-05</v>
+        <v>6.706080881061565e-05</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>7.206148896193484e-05</v>
+        <v>7.216188936958501e-05</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>7.753314020888701e-05</v>
+        <v>7.761454034178285e-05</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>8.326685250563165e-05</v>
+        <v>8.332571952606502e-05</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>8.914319017057793e-05</v>
+        <v>8.917670243161828e-05</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>9.504271556880579e-05</v>
+        <v>9.504876262964638e-05</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>0.0001008459910653742</v>
+        <v>0.0001008231736913321</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>0.0001064335790253631</v>
+        <v>0.0001063812091878791</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>0.0001116860418138365</v>
+        <v>0.0001116041426904752</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>0.0001164839417958596</v>
+        <v>0.0001163732477703095</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>0.0001207078413365105</v>
+        <v>0.0001205697979985838</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>0.0001242383028008541</v>
+        <v>0.0001240750669464868</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>0.0001269558885539575</v>
+        <v>0.0001267703281852094</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>0.0001287411609608952</v>
+        <v>0.0001285368552859499</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>0.0001294746823867336</v>
+        <v>0.0001292559218198984</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>0.0001290370151965431</v>
+        <v>0.0001288088013582492</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>0.0001273087217553922</v>
+        <v>0.0001270767674721946</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>0.0001241703644283502</v>
+        <v>0.0001239410937329277</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>0.0001195025055804913</v>
+        <v>0.0001192830537116464</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>0.0001132264611411403</v>
+        <v>0.0001130244531037023</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>0.0001055367619094501</v>
+        <v>0.000105358827923699</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>9.67402432339702e-05</v>
+        <v>9.659140851342045e-05</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>8.714408571014766e-05</v>
+        <v>8.702776858560128e-05</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>7.70554699334625e-05</v>
+        <v>7.697348185300903e-05</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>6.678157649935949e-05</v>
+        <v>6.673412202837612e-05</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>5.662958600331079e-05</v>
+        <v>5.661526282446233e-05</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>4.690667904078805e-05</v>
+        <v>4.69224779540269e-05</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>3.79200362072368e-05</v>
+        <v>3.796134112980299e-05</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>2.997683809812924e-05</v>
+        <v>3.003742606455039e-05</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>2.33840277217842e-05</v>
+        <v>2.34560702980363e-05</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>1.831695015629434e-05</v>
+        <v>1.839179673396659e-05</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>1.460104807444829e-05</v>
+        <v>1.467130855176946e-05</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>1.200425305982668e-05</v>
+        <v>1.206414015784376e-05</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>1.029449669600374e-05</v>
+        <v>1.033982595858195e-05</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>9.239710566561736e-06</v>
+        <v>9.267900360384536e-06</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>8.607826255077681e-06</v>
+        <v>8.617897769646721e-06</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>8.167541675935466e-06</v>
+        <v>8.160113400697896e-06</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>7.763687197196318e-06</v>
+        <v>7.740426242238925e-06</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>7.380776140648133e-06</v>
+        <v>7.343391555020983e-06</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>7.018285203563252e-06</v>
+        <v>6.968420135665008e-06</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>6.675691083213943e-06</v>
+        <v>6.614922780791856e-06</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>6.352470476871561e-06</v>
+        <v>6.282310287021435e-06</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>6.048100081808396e-06</v>
+        <v>5.969993450974624e-06</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>5.762056595296664e-06</v>
+        <v>5.677383069272224e-06</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>5.493816714607822e-06</v>
+        <v>5.403889938534257e-06</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>5.242857137014104e-06</v>
+        <v>5.148924855381539e-06</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>5.008654559787687e-06</v>
+        <v>4.911898616434827e-06</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>4.790685680200118e-06</v>
+        <v>4.692222018314241e-06</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>4.588427195523584e-06</v>
+        <v>4.489305857640547e-06</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>4.401355803030219e-06</v>
+        <v>4.302560931034458e-06</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>4.228948199991656e-06</v>
+        <v>4.131398035116182e-06</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>4.070681083680177e-06</v>
+        <v>3.975227966506578e-06</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>3.926031151367465e-06</v>
+        <v>3.83346152182591e-06</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>3.794475100325642e-06</v>
+        <v>3.705509497694875e-06</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>3.675489627826777e-06</v>
+        <v>3.590782690734118e-06</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>3.568551431142629e-06</v>
+        <v>3.488691897563979e-06</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>3.47313720754528e-06</v>
+        <v>3.398647914805114e-06</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>3.388723654306769e-06</v>
+        <v>3.320061539078138e-06</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>3.314787468698919e-06</v>
+        <v>3.252343567003457e-06</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>3.250805347993777e-06</v>
+        <v>3.194904795201695e-06</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>3.196253989463359e-06</v>
+        <v>3.147156020293434e-06</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>3.150610090379538e-06</v>
+        <v>3.108508038899141e-06</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>3.113350348014366e-06</v>
+        <v>3.078371647639431e-06</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>3.083951459639749e-06</v>
+        <v>3.0561576431348e-06</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>3.061890122527692e-06</v>
+        <v>3.041276822005824e-06</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>3.046643033950177e-06</v>
+        <v>3.033139980873055e-06</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>3.037686891179146e-06</v>
+        <v>3.031157916357028e-06</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>3.034498391486588e-06</v>
+        <v>3.034741425078299e-06</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>3.036554232144466e-06</v>
+        <v>3.043301303657407e-06</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>3.043331110424756e-06</v>
+        <v>3.056248348714915e-06</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>3.054305723599429e-06</v>
+        <v>3.072993356871363e-06</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>3.06895476894044e-06</v>
+        <v>3.092947124747282e-06</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>3.086754943719784e-06</v>
+        <v>3.115520448963253e-06</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>3.107182945209403e-06</v>
+        <v>3.140124126139786e-06</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>3.129715470681302e-06</v>
+        <v>3.166168952897472e-06</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>3.153829217407436e-06</v>
+        <v>3.193065725856837e-06</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>3.179001095301568e-06</v>
+        <v>3.220225481089731e-06</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>3.204930458099739e-06</v>
+        <v>3.247309743816769e-06</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>3.231960245779018e-06</v>
+        <v>3.274704767722721e-06</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>3.260549116456442e-06</v>
+        <v>3.302927114172215e-06</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>3.291155728249129e-06</v>
+        <v>3.332493344529957e-06</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>3.32423873927412e-06</v>
+        <v>3.363920020160577e-06</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>3.360256807648445e-06</v>
+        <v>3.397723702428694e-06</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>3.399668591489233e-06</v>
+        <v>3.434420952699025e-06</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>3.442932748913522e-06</v>
+        <v>3.474528332336196e-06</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>3.49050793803833e-06</v>
+        <v>3.518562402704818e-06</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>3.542852816980809e-06</v>
+        <v>3.567039725169625e-06</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>3.600426043857981e-06</v>
+        <v>3.620476861095231e-06</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>3.663686276786855e-06</v>
+        <v>3.679390371846238e-06</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>3.733092173884608e-06</v>
+        <v>3.744296818787404e-06</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>3.80910239326818e-06</v>
+        <v>3.815712763283267e-06</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>3.892175593054774e-06</v>
+        <v>3.894154766698608e-06</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>3.982770431361388e-06</v>
+        <v>3.980139390398019e-06</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>4.081345566304997e-06</v>
+        <v>4.074183195746069e-06</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>4.188359656002842e-06</v>
+        <v>4.176802744107578e-06</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>4.304271358571906e-06</v>
+        <v>4.288514596847121e-06</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>4.429539332129131e-06</v>
+        <v>4.409835315329236e-06</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>4.564622234791815e-06</v>
+        <v>4.5412814609188e-06</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>4.70997872467691e-06</v>
+        <v>4.683369594980357e-06</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>4.866067459901339e-06</v>
+        <v>4.836616278878423e-06</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>5.033347098582446e-06</v>
+        <v>5.001538073977924e-06</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>5.212276298836996e-06</v>
+        <v>5.178651541643219e-06</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>5.403313718782377e-06</v>
+        <v>5.36847324323928e-06</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>5.606918016535493e-06</v>
+        <v>5.571519740130604e-06</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>5.823547850213216e-06</v>
+        <v>5.78830759368165e-06</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>6.053661877932995e-06</v>
+        <v>6.019353365257455e-06</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>6.297718757811711e-06</v>
+        <v>6.265173616222492e-06</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>6.556177147966187e-06</v>
+        <v>6.526284907941167e-06</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>6.829495706513955e-06</v>
+        <v>6.803203801778607e-06</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>7.118133091571853e-06</v>
+        <v>7.096446859099238e-06</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>7.422547961256666e-06</v>
+        <v>7.406530641267424e-06</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>7.743198973686008e-06</v>
+        <v>7.733971709648382e-06</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>8.080544786976362e-06</v>
+        <v>8.079286625606171e-06</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>8.435044059245408e-06</v>
+        <v>8.442991950506073e-06</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>8.807155415302791e-06</v>
+        <v>8.825604209982436e-06</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>9.196381539868669e-06</v>
+        <v>9.226614451106535e-06</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>9.598769242441232e-06</v>
+        <v>9.641806453103361e-06</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.000958463960911e-05</v>
+        <v>1.006612651191633e-05</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.042409384795945e-05</v>
+        <v>1.049452092348733e-05</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.083756298408092e-05</v>
+        <v>1.092193598375982e-05</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.124525816456103e-05</v>
+        <v>1.134331798867606e-05</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.164244550598732e-05</v>
+        <v>1.175361323417835e-05</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>1.202439112494841e-05</v>
+        <v>1.214776801621008e-05</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>1.238636113803183e-05</v>
+        <v>1.252072863071356e-05</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>1.272362166182518e-05</v>
+        <v>1.286744137363112e-05</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>1.303143881291697e-05</v>
+        <v>1.318285254090607e-05</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.330507870789477e-05</v>
+        <v>1.346190842848073e-05</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>1.353980746334631e-05</v>
+        <v>1.369955533229757e-05</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.373089119585987e-05</v>
+        <v>1.389073954829968e-05</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.387359602202304e-05</v>
+        <v>1.40304073724294e-05</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.396318805842396e-05</v>
+        <v>1.411350510062962e-05</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.399493342165038e-05</v>
+        <v>1.413497902884286e-05</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.396454237560055e-05</v>
+        <v>1.409025569770932e-05</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.387552290957601e-05</v>
+        <v>1.398319312137004e-05</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.373803548738168e-05</v>
+        <v>1.382484245806768e-05</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.356245385677773e-05</v>
+        <v>1.362648548432443e-05</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.335915176552386e-05</v>
+        <v>1.339940397666195e-05</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.313850296138018e-05</v>
+        <v>1.315487971160239e-05</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>1.291088119210692e-05</v>
+        <v>1.290419446566797e-05</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>1.268666020546366e-05</v>
+        <v>1.265863001538024e-05</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>1.247621374921078e-05</v>
+        <v>1.242946813726164e-05</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>1.228991557110789e-05</v>
+        <v>1.222799060783373e-05</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>1.21381394189152e-05</v>
+        <v>1.206547920361875e-05</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>1.203125904039277e-05</v>
+        <v>1.195321570113876e-05</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>1.197964818330042e-05</v>
+        <v>1.190248187691556e-05</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>1.199368059539825e-05</v>
+        <v>1.192455950747128e-05</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>1.208368002698201e-05</v>
+        <v>1.203067747615438e-05</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>1.225138760373554e-05</v>
+        <v>1.222298496077574e-05</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>1.248030222110481e-05</v>
+        <v>1.248433237141517e-05</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>1.275158915890451e-05</v>
+        <v>1.279510134621752e-05</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>1.30464136969501e-05</v>
+        <v>1.313567352332849e-05</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>1.334594111505601e-05</v>
+        <v>1.348643054089266e-05</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.363133669303776e-05</v>
+        <v>1.382775403705581e-05</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>1.388376571071002e-05</v>
+        <v>1.414002564996278e-05</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>1.408439344788773e-05</v>
+        <v>1.440362701775869e-05</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>1.421503325205133e-05</v>
+        <v>1.459951282443209e-05</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>1.427790181122747e-05</v>
+        <v>1.472667915630586e-05</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>1.429924085793388e-05</v>
+        <v>1.480536594909958e-05</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>1.430667060093047e-05</v>
+        <v>1.485703203915556e-05</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>1.432781124897707e-05</v>
+        <v>1.490313626281589e-05</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>1.439028301083347e-05</v>
+        <v>1.496513745642268e-05</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>1.452170609525964e-05</v>
+        <v>1.506449445631823e-05</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>1.474683020023426e-05</v>
+        <v>1.522075315606834e-05</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>1.504189562255004e-05</v>
+        <v>1.542113220309469e-05</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>1.534273614735192e-05</v>
+        <v>1.562592286134419e-05</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>1.558395261534669e-05</v>
+        <v>1.579459474581821e-05</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>1.570014586724129e-05</v>
+        <v>1.588661747151819e-05</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>1.564385261977936e-05</v>
+        <v>1.587172487963038e-05</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>1.544786215267653e-05</v>
+        <v>1.576557722477992e-05</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>1.516740054744263e-05</v>
+        <v>1.559667474822026e-05</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>1.485769493145323e-05</v>
+        <v>1.539351828972606e-05</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>1.456506437060515e-05</v>
+        <v>1.518020092225966e-05</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>1.429611530666713e-05</v>
+        <v>1.496116565382992e-05</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>1.404639175885317e-05</v>
+        <v>1.473538173374786e-05</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>1.381143727792958e-05</v>
+        <v>1.450181817953363e-05</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>1.358679541466204e-05</v>
+        <v>1.425944400870672e-05</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>1.336800971981689e-05</v>
+        <v>1.400722823878726e-05</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>1.31506237441604e-05</v>
+        <v>1.374413988729541e-05</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>1.293018103845832e-05</v>
+        <v>1.346914797175062e-05</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>1.270222515347716e-05</v>
+        <v>1.318122150967331e-05</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>1.24622996399826e-05</v>
+        <v>1.287932951858288e-05</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>1.220594804874096e-05</v>
+        <v>1.25624410159995e-05</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>1.192871393051834e-05</v>
+        <v>1.222952501944308e-05</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>1.162614083608115e-05</v>
+        <v>1.187955054643388e-05</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>1.129402689458679e-05</v>
+        <v>1.151163609876807e-05</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>1.09343178184949e-05</v>
+        <v>1.112850993882664e-05</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>1.055527380387572e-05</v>
+        <v>1.073660809071141e-05</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>1.016544301276301e-05</v>
+        <v>1.034253566743869e-05</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>9.773373607190576e-06</v>
+        <v>9.952897782024853e-06</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>9.387613749191164e-06</v>
+        <v>9.574299547485183e-06</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>9.016711600798582e-06</v>
+        <v>9.213346076836034e-06</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>8.66921532404658e-06</v>
+        <v>8.876642483093694e-06</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>8.35367308096798e-06</v>
+        <v>8.570793879273554e-06</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>8.078633033596565e-06</v>
+        <v>8.302405378391929e-06</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>7.852643343965966e-06</v>
+        <v>8.078082093465004e-06</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>7.684252174109224e-06</v>
+        <v>7.904429137508367e-06</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>7.582007686060077e-06</v>
+        <v>7.788051623538315e-06</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>7.553596042149853e-06</v>
+        <v>7.735488409394147e-06</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>7.601820197371782e-06</v>
+        <v>7.752903018952726e-06</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>7.727765544358897e-06</v>
+        <v>7.84632696050291e-06</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>7.932515577501172e-06</v>
+        <v>8.021791596430717e-06</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>8.217153791188276e-06</v>
+        <v>8.28532828912195e-06</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>8.582763679809596e-06</v>
+        <v>8.642968400962098e-06</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>9.030428737755537e-06</v>
+        <v>9.100743294337654e-06</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>9.561232459415558e-06</v>
+        <v>9.664684331634191e-06</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.017625888252997e-05</v>
+        <v>1.034082340575157e-05</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.097467785129024e-05</v>
+        <v>1.12309609700562e-05</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>1.242737148452701e-05</v>
+        <v>1.27998281682746e-05</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>1.508704747057753e-05</v>
+        <v>1.559186455448005e-05</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.910484536842365e-05</v>
+        <v>1.97475327738163e-05</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>2.399234078929469e-05</v>
+        <v>2.476389514209721e-05</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>2.920404069263145e-05</v>
+        <v>3.008060300085641e-05</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>3.419445203786133e-05</v>
+        <v>3.513730769161378e-05</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>3.841808178441261e-05</v>
+        <v>3.937366055589022e-05</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>4.133614174229301e-05</v>
+        <v>4.223636264779619e-05</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>4.283734272098192e-05</v>
+        <v>4.36216023057808e-05</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>4.348793494483769e-05</v>
+        <v>4.413795632300843e-05</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>4.391423048185458e-05</v>
+        <v>4.445715259947975e-05</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>4.47425414000241e-05</v>
+        <v>4.525091903519312e-05</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>4.653421946292418e-05</v>
+        <v>4.712009980847967e-05</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>4.92199379348376e-05</v>
+        <v>4.99773520639312e-05</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>5.237571942018763e-05</v>
+        <v>5.334834340091901e-05</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>5.557363427136449e-05</v>
+        <v>5.675442877995609e-05</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>5.838575284076726e-05</v>
+        <v>5.971696316156487e-05</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>6.04106837601811e-05</v>
+        <v>6.17881658970299e-05</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>6.154556478874575e-05</v>
+        <v>6.286744989552091e-05</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>6.187549849790158e-05</v>
+        <v>6.307283377654005e-05</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>6.148851841412207e-05</v>
+        <v>6.252574490135918e-05</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>6.047265806387935e-05</v>
+        <v>6.134761063124843e-05</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>5.891599378851458e-05</v>
+        <v>5.965953255003897e-05</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>5.690856554557923e-05</v>
+        <v>5.756767112677115e-05</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>5.454315209400551e-05</v>
+        <v>5.515734734782714e-05</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>5.191273544533439e-05</v>
+        <v>5.251233565477255e-05</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>4.911029761110777e-05</v>
+        <v>4.97164104891738e-05</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>4.622882060285985e-05</v>
+        <v>4.685334629258964e-05</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>4.336128643213498e-05</v>
+        <v>4.400691750658894e-05</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>4.059952617202391e-05</v>
+        <v>4.125987614960016e-05</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>3.79951879960364e-05</v>
+        <v>3.865927821633538e-05</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>3.555021570515249e-05</v>
+        <v>3.620802538513893e-05</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>3.326347083203643e-05</v>
+        <v>3.390628123620695e-05</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>3.11338149093591e-05</v>
+        <v>3.175420934974223e-05</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>2.916010946979088e-05</v>
+        <v>2.975197330594706e-05</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>2.734121604599685e-05</v>
+        <v>2.789973668501834e-05</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>2.567599617064751e-05</v>
+        <v>2.619766306715849e-05</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>2.416331137641278e-05</v>
+        <v>2.464591603256937e-05</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>2.280202319595859e-05</v>
+        <v>2.324465916144872e-05</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>2.159099316195605e-05</v>
+        <v>2.199405603399959e-05</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>2.05290828070716e-05</v>
+        <v>2.089427023042026e-05</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>1.961515366397505e-05</v>
+        <v>1.994546533091246e-05</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>1.884749754400648e-05</v>
+        <v>1.914720473265074e-05</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>1.820895199597659e-05</v>
+        <v>1.848277126618084e-05</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>1.766546924711716e-05</v>
+        <v>1.791765962091335e-05</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.718214488766694e-05</v>
+        <v>1.741646204684345e-05</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.672407450786279e-05</v>
+        <v>1.694377079396437e-05</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.625635369794286e-05</v>
+        <v>1.646417811227066e-05</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.574407804814533e-05</v>
+        <v>1.594227625175693e-05</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>1.5152343148707e-05</v>
+        <v>1.534265746241635e-05</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>1.444627255690814e-05</v>
+        <v>1.462994207607641e-05</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>1.361322529623915e-05</v>
+        <v>1.379107715631883e-05</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>1.270274783940389e-05</v>
+        <v>1.28754524645284e-05</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.177517508669495e-05</v>
+        <v>1.194329047081512e-05</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.089084193840496e-05</v>
+        <v>1.105481364528903e-05</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.011008329482417e-05</v>
+        <v>1.027024445805775e-05</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>9.493234056245746e-06</v>
+        <v>9.649805379231891e-06</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>9.100629122960414e-06</v>
+        <v>9.253718878919552e-06</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>8.992603395260687e-06</v>
+        <v>9.142207427230665e-06</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>9.229491773438067e-06</v>
+        <v>9.375493494274133e-06</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>9.871629157784809e-06</v>
+        <v>1.001379955015961e-05</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.097935044859275e-05</v>
+        <v>1.111734806499633e-05</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.261299054615204e-05</v>
+        <v>1.274636150889187e-05</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>1.483288435075746e-05</v>
+        <v>1.496106235195839e-05</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.773315781004601e-05</v>
+        <v>1.785607578319992e-05</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>2.183076707793907e-05</v>
+        <v>2.195651109524799e-05</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>2.793042259192929e-05</v>
+        <v>2.808044067321656e-05</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>3.684234995864793e-05</v>
+        <v>3.705155190466696e-05</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>4.937677478475429e-05</v>
+        <v>4.969353217718876e-05</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>6.634392267688562e-05</v>
+        <v>6.683006887834925e-05</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>8.77130309687117e-05</v>
+        <v>8.842964769992766e-05</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>0.0001057653861196157</v>
+        <v>0.0001066428704985007</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>0.0001086620895643799</v>
+        <v>0.0001094305194467553</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>9.768322898559009e-05</v>
+        <v>9.807699080030126e-05</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>0.000102191188765175</v>
+        <v>0.0001024157097010444</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>0.0001166533959082186</v>
+        <v>0.0001168868385855447</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>0.000131162022922242</v>
+        <v>0.0001314908851907862</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>0.000136700031942885</v>
+        <v>0.0001371234487564492</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>0.0001336406251548111</v>
+        <v>0.0001341157166912222</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>0.0001279863306522549</v>
+        <v>0.0001284553879172954</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>0.0001257585307658304</v>
+        <v>0.0001261498338629284</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>0.0001286662826394363</v>
+        <v>0.0001289278589353586</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>0.0001313848020278341</v>
+        <v>0.0001315382603636297</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>0.0001313764329229201</v>
+        <v>0.0001314739616835575</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>0.0001290377745020128</v>
+        <v>0.0001291213038028914</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>0.0001248573229909516</v>
+        <v>0.0001249572456908028</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>0.0001193235746155812</v>
+        <v>0.0001194587463164686</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>0.0001129250256017516</v>
+        <v>0.0001131027646490705</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>0.0001061501721752949</v>
+        <v>0.0001063662596577725</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>9.94692644172489e-05</v>
+        <v>9.970858407418178e-05</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>9.309085292493774e-05</v>
+        <v>9.333656916134697e-05</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>8.702766705193874e-05</v>
+        <v>8.72680925499127e-05</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>8.128771397677088e-05</v>
+        <v>8.151647530601121e-05</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>7.587900087795183e-05</v>
+        <v>7.609503849577368e-05</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>7.080953493398492e-05</v>
+        <v>7.101710318531663e-05</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>6.608732332339232e-05</v>
+        <v>6.629599044077566e-05</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>6.172037322467847e-05</v>
+        <v>6.194502132826858e-05</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>5.771675308709944e-05</v>
+        <v>5.797756137877237e-05</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>5.410190449097603e-05</v>
+        <v>5.441958399478368e-05</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>5.094244346665541e-05</v>
+        <v>5.132694332820851e-05</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>4.831095140959304e-05</v>
+        <v>4.875982266175947e-05</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>4.628000971524246e-05</v>
+        <v>4.677840527814732e-05</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>4.491442706670071e-05</v>
+        <v>4.543566124923571e-05</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>4.414836755486236e-05</v>
+        <v>4.466332021673496e-05</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>4.38075447299891e-05</v>
+        <v>4.429246785405137e-05</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>4.371438653173871e-05</v>
+        <v>4.415114073140035e-05</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>4.369132089977006e-05</v>
+        <v>4.406737541899855e-05</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>4.356077577374153e-05</v>
+        <v>4.386920848706195e-05</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>4.314517909331142e-05</v>
+        <v>4.338467650580662e-05</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>4.228728783670652e-05</v>
+        <v>4.246206283087833e-05</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>4.103696688027402e-05</v>
+        <v>4.115592073865305e-05</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>3.956501862944013e-05</v>
+        <v>3.964125171034534e-05</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>3.804376101100762e-05</v>
+        <v>3.809456661660897e-05</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>3.664551195177507e-05</v>
+        <v>3.669237632809342e-05</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>3.554174657379385e-05</v>
+        <v>3.561030319823131e-05</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>3.477449812916616e-05</v>
+        <v>3.488750697698622e-05</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>3.411808450296895e-05</v>
+        <v>3.428091156600436e-05</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>3.332572789368463e-05</v>
+        <v>3.35254370269248e-05</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>3.231814088214959e-05</v>
+        <v>3.253585366979958e-05</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>3.113857523727579e-05</v>
+        <v>3.135851370870331e-05</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>2.983308660347753e-05</v>
+        <v>3.004278014375426e-05</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>2.84477306251704e-05</v>
+        <v>2.863801597507196e-05</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>2.702856294676618e-05</v>
+        <v>2.71935842027721e-05</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>2.562163921268164e-05</v>
+        <v>2.575884782697543e-05</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>2.427275387182057e-05</v>
+        <v>2.438289031142359e-05</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>2.301003965511405e-05</v>
+        <v>2.309589321515263e-05</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>2.183304359742296e-05</v>
+        <v>2.189744514446941e-05</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>2.073870667568632e-05</v>
+        <v>2.07843456531906e-05</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>1.972396986684639e-05</v>
+        <v>1.97533942951362e-05</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>1.878577414784515e-05</v>
+        <v>1.880139062412586e-05</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>1.792106049562205e-05</v>
+        <v>1.792513419397673e-05</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>1.712676988711915e-05</v>
+        <v>1.712142455850855e-05</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>1.63998432992782e-05</v>
+        <v>1.638706127154079e-05</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>1.573722170903908e-05</v>
+        <v>1.5718843886891e-05</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>1.513584609334412e-05</v>
+        <v>1.511357195837922e-05</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>1.459265742913341e-05</v>
+        <v>1.456804503982321e-05</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>1.410459669334866e-05</v>
+        <v>1.407906268504241e-05</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>1.366860486293141e-05</v>
+        <v>1.364342444785602e-05</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>1.328162291482204e-05</v>
+        <v>1.325792988208212e-05</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>1.294059182596209e-05</v>
+        <v>1.291937854153997e-05</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>1.2642452573293e-05</v>
+        <v>1.262456998004867e-05</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>1.238414613375537e-05</v>
+        <v>1.237030375142654e-05</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>1.216261348429065e-05</v>
+        <v>1.215337940949271e-05</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>1.197479560184016e-05</v>
+        <v>1.197059650806618e-05</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>1.18176334633447e-05</v>
+        <v>1.181875460096548e-05</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>1.168806804574573e-05</v>
+        <v>1.169465324200973e-05</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>1.158304032598417e-05</v>
+        <v>1.159509198501757e-05</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>1.149949128100131e-05</v>
+        <v>1.151687038380796e-05</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>1.143436188773829e-05</v>
+        <v>1.145678799219976e-05</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.138459312313633e-05</v>
+        <v>1.141164436401184e-05</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.134712596413647e-05</v>
+        <v>1.137823905306299e-05</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.131927187169216e-05</v>
+        <v>1.135376362993027e-05</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.130040556388031e-05</v>
+        <v>1.133759284001656e-05</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.129061579107539e-05</v>
+        <v>1.132985696099411e-05</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.128999199363378e-05</v>
+        <v>1.133068700061924e-05</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.12986236119119e-05</v>
+        <v>1.134021396664829e-05</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.131660008626613e-05</v>
+        <v>1.135856886683759e-05</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.134401085705287e-05</v>
+        <v>1.138588270894345e-05</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.138094536462855e-05</v>
+        <v>1.142228650072226e-05</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.142749304934956e-05</v>
+        <v>1.146791124993031e-05</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>1.148374335157224e-05</v>
+        <v>1.15228879643239e-05</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>1.15497857116531e-05</v>
+        <v>1.158734765165945e-05</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>1.16257095699484e-05</v>
+        <v>1.166142131969318e-05</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>1.171160436681471e-05</v>
+        <v>1.174523997618156e-05</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>1.180755954260834e-05</v>
+        <v>1.183893462888085e-05</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>1.19136645376856e-05</v>
+        <v>1.19426362855473e-05</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>1.203000879240309e-05</v>
+        <v>1.205647595393742e-05</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>1.21566817471171e-05</v>
+        <v>1.218058464180746e-05</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>1.229377284218392e-05</v>
+        <v>1.231509335691362e-05</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>1.244137151796019e-05</v>
+        <v>1.246013310701248e-05</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>1.259956721480219e-05</v>
+        <v>1.261583489986026e-05</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>1.276844937306617e-05</v>
+        <v>1.278232974321314e-05</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>1.294810743310883e-05</v>
+        <v>1.295974864482773e-05</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>1.313863083528625e-05</v>
+        <v>1.314822261246008e-05</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>1.334010901995517e-05</v>
+        <v>1.334788265386683e-05</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>1.355263142747182e-05</v>
+        <v>1.355885977680416e-05</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>1.37762874981924e-05</v>
+        <v>1.37812849890282e-05</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>1.401116667247372e-05</v>
+        <v>1.401528929829568e-05</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>1.425735839067198e-05</v>
+        <v>1.426100371236275e-05</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>1.451495209314333e-05</v>
+        <v>1.451855923898549e-05</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>1.478403722024465e-05</v>
+        <v>1.47880868859207e-05</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.50647032123321e-05</v>
+        <v>1.506971766092449e-05</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>1.535703950976183e-05</v>
+        <v>1.536358257175292e-05</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>1.566113555289076e-05</v>
+        <v>1.566981262616286e-05</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>1.597708078207473e-05</v>
+        <v>1.598853883191008e-05</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>1.630496463767073e-05</v>
+        <v>1.631989219675149e-05</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.664616734505003e-05</v>
+        <v>1.666526263447983e-05</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.70081681605601e-05</v>
+        <v>1.703198845991797e-05</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.7400245989104e-05</v>
+        <v>1.742916318988128e-05</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.783167999643095e-05</v>
+        <v>1.786588059558914e-05</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.83117493482887e-05</v>
+        <v>1.835123444825941e-05</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.884973321042662e-05</v>
+        <v>1.889431851911165e-05</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.945491074859285e-05</v>
+        <v>1.950422657936412e-05</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>2.013656112853527e-05</v>
+        <v>2.019005240023483e-05</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>2.090396351600363e-05</v>
+        <v>2.096088975294371e-05</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>2.17663970767459e-05</v>
+        <v>2.182583240870883e-05</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>2.273314097650967e-05</v>
+        <v>2.279397413874796e-05</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>2.381290030883778e-05</v>
+        <v>2.387384154416251e-05</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>2.500412584604556e-05</v>
+        <v>2.506383019285739e-05</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>2.629642597230719e-05</v>
+        <v>2.635359957691081e-05</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>2.767911933034551e-05</v>
+        <v>2.77325229305204e-05</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>2.914152456287855e-05</v>
+        <v>2.918997348787902e-05</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>3.067296031262946e-05</v>
+        <v>3.07153244831846e-05</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>3.226274522231746e-05</v>
+        <v>3.229794915063114e-05</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>3.390019793466159e-05</v>
+        <v>3.39272207244125e-05</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>3.557463709238526e-05</v>
+        <v>3.559251243872688e-05</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>3.727538133820758e-05</v>
+        <v>3.728319752776816e-05</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>3.899174931484746e-05</v>
+        <v>3.898864922573011e-05</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>4.071305966502853e-05</v>
+        <v>4.069824076681111e-05</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>4.242863103146974e-05</v>
+        <v>4.240134538520488e-05</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>4.412778205689011e-05</v>
+        <v>4.40873363151053e-05</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>4.579983138401317e-05</v>
+        <v>4.574558679071066e-05</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>4.744578967777391e-05</v>
+        <v>4.737722406990283e-05</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>4.912061024137388e-05</v>
+        <v>4.903760410054299e-05</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>5.089479257606174e-05</v>
+        <v>5.079771146827022e-05</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>5.28388376341987e-05</v>
+        <v>5.272853221753128e-05</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>5.502324636815129e-05</v>
+        <v>5.490105239277819e-05</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>5.751851973028093e-05</v>
+        <v>5.738625803845792e-05</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>6.039515867294791e-05</v>
+        <v>6.025513519901631e-05</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>6.372366414852045e-05</v>
+        <v>6.357866991890707e-05</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>6.757449545500581e-05</v>
+        <v>6.742780478597499e-05</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>7.20052084178723e-05</v>
+        <v>7.186002062435367e-05</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>7.704225287252848e-05</v>
+        <v>7.690034641337819e-05</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>8.270748565065187e-05</v>
+        <v>8.256901940436154e-05</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>8.902276358391759e-05</v>
+        <v>8.888627684861454e-05</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>9.600994350401828e-05</v>
+        <v>9.587235599746529e-05</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>0.0001036908822426297</v>
+        <v>0.0001035474941022252</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>0.0001120874366314252</v>
+        <v>0.0001119319284142031</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>0.000121221463502101</v>
+        <v>0.0001210458961847309</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>0.0001311062367180055</v>
+        <v>0.0001309013532365874</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>0.00014165029614158</v>
+        <v>0.0001414092009425877</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>0.0001526921805440924</v>
+        <v>0.0001524127988867842</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>0.0001640691477764875</v>
+        <v>0.0001637542707346395</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>0.0001756184556897413</v>
+        <v>0.0001752757401516469</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>0.0001871773621347988</v>
+        <v>0.0001868193308032692</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>0.0001985831249626051</v>
+        <v>0.0001982271663549691</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>0.0002096730020241361</v>
+        <v>0.0002093413704722402</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>0.0002202842511703367</v>
+        <v>0.0002200040668205449</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>0.0002302444964838849</v>
+        <v>0.0002300470429476676</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>0.0002392442138774901</v>
+        <v>0.0002391549394507011</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>0.0002468717724574151</v>
+        <v>0.0002469028460284914</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>0.000252713107636098</v>
+        <v>0.0002528632412577266</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>0.0002563541548259551</v>
+        <v>0.0002566086037150735</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>0.0002573808494394107</v>
+        <v>0.0002577114119772061</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>0.0002553793372833528</v>
+        <v>0.0002557443591716729</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>0.0002502771300404215</v>
+        <v>0.0002506282480941646</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>0.0002430372846088891</v>
+        <v>0.0002433398842839556</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>0.0002348184826165951</v>
+        <v>0.0002350555626391801</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>0.0002267794056045447</v>
+        <v>0.0002269515779698877</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>0.0002198431657166911</v>
+        <v>0.0002199652656087263</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>0.0002140107932012434</v>
+        <v>0.000214098609307509</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>0.0002090577390025326</v>
+        <v>0.0002091247672013003</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>0.0002047594540648697</v>
+        <v>0.0002048168974251451</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>0.0002008913893325791</v>
+        <v>0.0002009481581141014</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>0.0001972289957499809</v>
+        <v>0.0001972917074032229</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>0.0001935477242613981</v>
+        <v>0.0001936207034275662</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>0.0001896230258111442</v>
+        <v>0.0001897083043221786</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>0.0001852303513435464</v>
+        <v>0.0001853276682221208</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>0.000180184321675117</v>
+        <v>0.0001802914052807418</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>0.000174525101918115</v>
+        <v>0.0001746392945744449</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>0.0001683734203809344</v>
+        <v>0.0001684922586838104</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>0.0001618501059179355</v>
+        <v>0.0001619713214596313</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>0.0001550759873834952</v>
+        <v>0.0001551975067527174</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>0.0001481718936319912</v>
+        <v>0.0001482918384138793</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>0.0001412586535177826</v>
+        <v>0.0001413753402939087</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>0.000134457095895247</v>
+        <v>0.0001345690362436163</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>0.0001278874520058943</v>
+        <v>0.0001279933531876366</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>0.0001216120091456117</v>
+        <v>0.0001217108406859358</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>0.0001155875210427705</v>
+        <v>0.0001156786359951541</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>0.0001097595395647031</v>
+        <v>0.0001098426873824808</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>0.0001040736165787578</v>
+        <v>0.0001041489431151213</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>9.847530395228264e-05</v>
+        <v>9.854335146028051e-05</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>9.29101535526106e-05</v>
+        <v>9.297186068514844e-05</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>8.732371724708969e-05</v>
+        <v>8.738041905693002e-05</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>8.166154690306807e-05</v>
+        <v>8.171497484283043e-05</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>7.587215832779813e-05</v>
+        <v>7.59244150620241e-05</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>6.997434429670739e-05</v>
+        <v>7.002730647933071e-05</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>6.405836505651204e-05</v>
+        <v>6.411307599128306e-05</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>5.821768291551972e-05</v>
+        <v>5.827432534448251e-05</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>5.254576018205915e-05</v>
+        <v>5.260365628555135e-05</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>4.71360591644384e-05</v>
+        <v>4.719367056109131e-05</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>4.208204217098107e-05</v>
+        <v>4.213696991771962e-05</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>3.747717151000942e-05</v>
+        <v>3.75261561020522e-05</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>3.341490948983348e-05</v>
+        <v>3.345383086069271e-05</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>2.998232258723069e-05</v>
+        <v>3.000669957992959e-05</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>2.723885233806707e-05</v>
+        <v>2.724600002632118e-05</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>2.523648355585173e-05</v>
+        <v>2.522609556368801e-05</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>2.402788605598246e-05</v>
+        <v>2.400204295536393e-05</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>2.370995202188815e-05</v>
+        <v>2.367366279171605e-05</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>2.441095342520996e-05</v>
+        <v>2.437238491031132e-05</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>2.601578418320141e-05</v>
+        <v>2.598229099430785e-05</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>2.831097883938429e-05</v>
+        <v>2.82875089303127e-05</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>3.108283410381245e-05</v>
+        <v>3.107192491614258e-05</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>3.411612981270173e-05</v>
+        <v>3.411794891253231e-05</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>3.716060039347229e-05</v>
+        <v>3.717388433113042e-05</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>3.993084724661354e-05</v>
+        <v>3.995384276363721e-05</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>4.21399373751023e-05</v>
+        <v>4.21704425104521e-05</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>4.350093778192397e-05</v>
+        <v>4.353630187198308e-05</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>4.372713632985925e-05</v>
+        <v>4.376425974295644e-05</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>4.276136754250545e-05</v>
+        <v>4.279642576016692e-05</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>4.121009719056402e-05</v>
+        <v>4.12377431121678e-05</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>3.979901798149587e-05</v>
+        <v>3.981223861159179e-05</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>3.921501674294974e-05</v>
+        <v>3.920541846711732e-05</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>3.94169032378018e-05</v>
+        <v>3.938006417673131e-05</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>3.97165193908064e-05</v>
+        <v>3.965674549153758e-05</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>3.940319406412554e-05</v>
+        <v>3.933368460159712e-05</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>3.792692882700534e-05</v>
+        <v>3.786735391955489e-05</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>3.541788222805227e-05</v>
+        <v>3.538412801710436e-05</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>3.218615824500891e-05</v>
+        <v>3.218761383309412e-05</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>2.854186200106261e-05</v>
+        <v>2.858141943454763e-05</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>2.479509861940223e-05</v>
+        <v>2.486915288848976e-05</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>2.125595243328622e-05</v>
+        <v>2.135440201521654e-05</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>1.815996465749457e-05</v>
+        <v>1.826815918768437e-05</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>1.550064460990815e-05</v>
+        <v>1.560570871907801e-05</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>1.322246533987396e-05</v>
+        <v>1.331457987928964e-05</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>1.126989989674637e-05</v>
+        <v>1.134230193821877e-05</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>9.587421329878536e-06</v>
+        <v>9.636404165763761e-06</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>8.119502688619242e-06</v>
+        <v>8.144415831818528e-06</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>6.810618330759622e-06</v>
+        <v>6.813867514077091e-06</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>5.666237213675678e-06</v>
+        <v>5.653251366253e-06</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>4.827741751441817e-06</v>
+        <v>4.805729989214704e-06</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>4.265483351315042e-06</v>
+        <v>4.240573820178455e-06</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>3.915536438965952e-06</v>
+        <v>3.892339687632044e-06</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>3.71397544006432e-06</v>
+        <v>3.695584420062452e-06</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>3.596874780280995e-06</v>
+        <v>3.584864845957719e-06</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>3.509116353010431e-06</v>
+        <v>3.503744188469527e-06</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>3.437340065395866e-06</v>
+        <v>3.438486837985353e-06</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>3.380548912143754e-06</v>
+        <v>3.387999507220652e-06</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>3.337747785814933e-06</v>
+        <v>3.351190849610534e-06</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>3.3079415789704e-06</v>
+        <v>3.326969518590254e-06</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>3.290135184171104e-06</v>
+        <v>3.314244167595023e-06</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>3.283333493977954e-06</v>
+        <v>3.311923450060021e-06</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>3.286541400951911e-06</v>
+        <v>3.318916019420467e-06</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>3.298763797653899e-06</v>
+        <v>3.334130529111549e-06</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>3.31900557664488e-06</v>
+        <v>3.356475632568496e-06</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>3.34627163048576e-06</v>
+        <v>3.384859983226474e-06</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>3.379567099015931e-06</v>
+        <v>3.418192835231475e-06</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>3.417944639468295e-06</v>
+        <v>3.455498876216241e-06</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>3.460560613197731e-06</v>
+        <v>3.496054721107904e-06</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>3.506585061725293e-06</v>
+        <v>3.539170217912148e-06</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>3.555188026571922e-06</v>
+        <v>3.584155214634548e-06</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>3.605539549258547e-06</v>
+        <v>3.630319559280678e-06</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>3.656809671306235e-06</v>
+        <v>3.67697309985623e-06</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>3.70816843423592e-06</v>
+        <v>3.723425684366775e-06</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>3.758785879568532e-06</v>
+        <v>3.768987160817884e-06</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>3.80783204882514e-06</v>
+        <v>3.812967377215253e-06</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>3.854476983526634e-06</v>
+        <v>3.854676181564417e-06</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>3.897890725194074e-06</v>
+        <v>3.893423421871061e-06</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>3.937243315348395e-06</v>
+        <v>3.928518946140758e-06</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>3.971704795510542e-06</v>
+        <v>3.959272602379095e-06</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>4.000445207201557e-06</v>
+        <v>3.984994238591739e-06</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>4.022634591942381e-06</v>
+        <v>4.004993702784274e-06</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>4.037442991253981e-06</v>
+        <v>4.018580842962299e-06</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>4.044040446657363e-06</v>
+        <v>4.025065507131457e-06</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>4.041596999673482e-06</v>
+        <v>4.023757543297337e-06</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>4.03016102134473e-06</v>
+        <v>4.014779316948996e-06</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>4.013832106330506e-06</v>
+        <v>4.002000864509812e-06</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>3.997877104000364e-06</v>
+        <v>3.990372016303412e-06</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>3.987562972106926e-06</v>
+        <v>3.984842702915502e-06</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>3.988156668402859e-06</v>
+        <v>3.990362854931823e-06</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>4.004925150640819e-06</v>
+        <v>4.011882402938103e-06</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>4.043135376573411e-06</v>
+        <v>4.054351277520023e-06</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>4.108054303953354e-06</v>
+        <v>4.122719409263387e-06</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>4.204948890533173e-06</v>
+        <v>4.221936728753791e-06</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>4.339086094065693e-06</v>
+        <v>4.356953166577139e-06</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>4.515732872303495e-06</v>
+        <v>4.532718653319086e-06</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>4.740156182999006e-06</v>
+        <v>4.75418311956514e-06</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>5.017622983905282e-06</v>
+        <v>5.026296495901426e-06</v>
       </c>
     </row>
   </sheetData>
